--- a/500all/speech_level/speeches_CHRG-114hhrg98957.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98957.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Good afternoon. This subcommittee will come to order. We want to welcome to our hearing the President's fiscal year 2017 budget request for the defense-related activities carried out by the Department of Energy [DOE].    I want to thank our witnesses for being here today. I know it takes a lot of time and energy to prepare for these hearings, and I really appreciate your commitment in doing that.    Our witnesses today are Lieutenant General Frank Klotz, retired, Administrator, NNSA [National Nuclear Security Administration]; Ms. Monica Regalbuto, Assistant Secretary for Environmental Management, U.S. Department of Energy; and Ms. Joyce Connery, Chairwoman, Defense Nuclear Facilities Safety Board.    General Klotz, you have some very able folks here today in support of you. I would like to recognize them. Admiral Frank Caldwell. Brigadier General S.L. Davis. And Anne Harrington. Glad to have you all here.    If any of our members have questions directly for these folks later in the hearing, we will ensure that they can step forward to the table where the microphones are and respond. And I know Admiral Caldwell has a supplemental written statement that will be introduced and accepted for the record.    [The prepared statement of Admiral Caldwell can be found in the Appendix on page 65.]</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400081</t>
   </si>
   <si>
-    <t>Jim Cooper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cooper. Thank you, Mr. Chairman. And I would like to also welcome the witnesses.    It is rare in the modern Congress to have essentially a good news hearing, but I think this one of those hearings. I am thankful for that, because at least at the authorizing level, it looks like these programs are going to be fully funded. In some cases, there are increases. In a few cases, there are decreases. The leading one is the Nuclear Nonproliferation account, which goes down some 6 or 7 percent. But we all have to acknowledge that Russia is not exactly a willing partner these days to help us contain that massive hoard of fissile material.    But the key bit of good news for folks back home is here you have a highly contentious Congress that is agreeing on what is our number one defense priority, and we are agreeing on a bipartisan basis, and we are putting our money where our mouths are. So, that is good news for the American people, that is good news for America, that is even good news for this Congress.    So essentially we have a lot to celebrate here. We will have not only questions today, but also questions in the closed session to follow this. But we should not overlook the central fact that the administration and the Republican majority in Congress are keeping the nuclear deterrent safe, secure, and reliable.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -82,18 +76,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Regalbuto</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary Regalbuto. Good afternoon, Chairman Rogers, Ranking Member Cooper, and members of the subcommittee. I am pleased to be here today to represent the Department of Energy's Office of Environmental Management and to discuss the work that we have already successfully accomplished and what we plan to accomplish under the Presidential fiscal 2017 budget request.    The total budget request for the EM [Environmental Management] program is $6.1 billion, which includes $673 million of proposed mandatory funding and $5.3 billion for defense environmental cleanup activities. The request would allow EM to maintain a safe and secure posture across the complex, while maximizing our work on compliance activities.    I would like to take this opportunity to highlight a number of EM's recent accomplishments. At the Savannah River Site, the 4,000th canister of radioactive glass was recently poured. Achieving the milestone enabled us to close the seven high-level waste tanks. At the Moab Site, half of the estimated 60 million tons of uranium mill tailings have been removed and shipped to an engineering disposal cell. At Hanford, we have completed cleanup of the bulk of River Corridor, including more than 500 facilities and 1,000 remediation sites.    The fiscal 2017 budget request will allow us to continue to make progress in ongoing cleanup priorities. Among EM's top priorities is the safe reopening of WIPP [Waste Isolation Pilot Program]. EM continues to support the recovery from two incidents at the facility that interrupted the nationwide program for the disposition of transuranic waste. The request will support initiating waste emplacement operations by December of 2016.    At Idaho, the request will support the Integrated Waste Treatment Unit. This facility is planned to treat approximately 900,000 gallons of sodium-bearing waste. At the Savannah River Site, we will complete construction and ramp up commissioning activities at the Salt Waste Processing Facility, which will significantly increase our ability to treat tank waste. In addition, we will continue to receive, store, and process spent nuclear reactor fuel.    At the Hanford Office of River Protection, the request supports continued construction of the Low-Activity Waste Facility, Balance of Plants, and outfitting the Analytical Laboratory, which are the centerpiece of the Department's plan to begin the direct feed of low-activity waste as soon as 2022.    The request for Richland allows us to continue important work on the Central Plateau and to complete the demolition of the Hanford Plutonium Finishing Plant, once one of the most dangerous buildings in the complex.    At Oak Ridge, the request supports continuing design for the Outfall 200 Mercury Training Facility at the Y-12 National Security Complex and complete the demolition of Building K-27, the last gaseous diffusion enrichment process building. It will mark the first time that a gaseous diffusion enrichment site has been completely decommissioned.    With the most challenging cleanup remaining, we understand the importance of technology development in reducing the lifecycle costs and enhancing our effectiveness. To help address many of the technical challenges involved, the request reflects a total investment in technology development of $33 million. The funding will allow us to continue to integrate robotics technologies into our efforts to help improve overall work and quality of life by easing the performance of physically demanding tasks.    In closing, I am honored to be here today representing the Office of Environmental Management. We are committed to achieving our mission, and we will continue to apply innovative strategies to complete our mission safely. Thank you, and I will be very pleased to take your questions.    [The prepared statement of Secretary Regalbuto can be found in the Appendix on page 44.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. I thank you.    Ms. Connery, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Connery</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Connery. Thank you. Thank you, Chairman Rogers, Ranking Member Cooper, and distinguished members of the subcommittee. Thank you for this opportunity to testify on behalf of the Defense Nuclear Facilities Safety Board on the fiscal 2017 budget request.    My name is Joyce Connery, and I have been with the Board for 6 months. I am joined today by two of my fellow Board members, Bruce Hamilton and Sean Sullivan. Bruce and I are both new to the Board this year.    As you may know, the Board is the only agency that provides independent safety oversight to DOE's defense nuclear facilities. These facilities and their operations are essential to our Nation's defense, as noted by the chairman. They perform work that includes the assembly and disassembly of nuclear weapons, surveillance of the stockpile, fabrication of plutonium pits and weapons components, production and recycling of tritium, nuclear criticality experiments, subcritical experiments, and a host of activities to address radioactive legacy waste resulting from 70 years of nuclear weapons operations.    The Board's vitally important oversight mission is achieved with a relatively small budget and a cadre of technical experts. In fiscal year 2017, the Board's budget request is $31 million and supports 120 FTEs [full-time equivalents]. With these resources--and our staff, our people are truly the Board's greatest resource--we will continue to perform independent safety oversight throughout the complex.    Within our oversight responsibilities, we strive to proactively address safety issues at DOE defense nuclear facilities to eliminate threats to public health and safety.    Specifically, we advise DOE and NNSA on the need to effectively integrate safety into the design of new facilities, strengthen the protection of workers through improvements in work planning and conduct of operations, and to improve emergency preparedness and safety culture at sites with defense nuclear facilities.    In recent years, the Board has increased its emphasis on emergency preparedness and response capabilities, making recommendations both complex-wide and site-specific. The complex's aging facilities and resultant backlog of maintenance have created additional concerns. Delays to NNSA's efforts to modernize its infrastructure can exacerbate safety-related issues and require that ongoing work be performed in degrading nuclear facilities that do not meet modern safety standards.    The Board supports DOE and NNSA's efforts to develop new defense facilities, and we will continue to work closely with them to integrate safety into their designs at the earliest possible stages.    While increasing emphasis has been placed on emergency management preparedness and response, I personally have also been concerned with the state of the oversight throughout the defense nuclear complex and staffing challenges at both the Federal and contractor level.    Difficulties retaining proper technical competencies have led to concerns of insufficient Federal safety oversight, and similar concerns on the contractor side impact conduct of operations.    Staffing shortages may be the result of an aging and retiring workforce, competition for highly skilled workers, and compounded by the slow pace of the clearance adjudication process.    Chairman Rogers, Ranking Member Cooper, this concludes my opening statement. Thank you again for the opportunity to be here today. We at the Board look forward to our continued work with this subcommittee, and I stand ready to respond to any questions you may have.    Thank you.    [The prepared statement of Ms. Connery can be found in the Appendix on page 53.]</t>
   </si>
   <si>
@@ -139,9 +127,6 @@
     <t>400141</t>
   </si>
   <si>
-    <t>Trent Franks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Franks. Well, thank you, Mr. Chairman.    Thank all of you for being here.    General, I always especially appreciate men like yourself who have given their entire life to the cause of freedom.    General, do you believe that the need for our capability to detect, identify, and characterize nuclear weapons programs, illicit diversion of special nuclear materials, and nuclear detonations is something that is increasing in this environment or decreasing, that need to be able to do that?    General Klotz. The need is always there to be able to detect, and particularly as more and more countries look to civil nuclear power as a way to solve their energy demands and needs in the future, the ability to detect whether or not the materials that are associated with civil nuclear power are being diverted for military uses will continue to be a challenge and a greater challenge. It is something that we spend a lot of time thinking about. Our laboratories and our production facilities are engaged in significant research and development to ensure that we are staying ahead of the power curve on this.</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t xml:space="preserve">    Mr. Franks. Absolutely.</t>
   </si>
   <si>
-    <t>Harrington</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Harrington. First, thank you very much for the question and particularly for recognizing what is very important in my line of business, which is the evolving and emerging threats.    To go back to your initial question very quickly on the R&amp;D side, we have two programs specifically in the R&amp;D area that address those issues. We have what we call our Material and Weapons Development Program that looks at nuclear fuel cycle, especially challenges from noncooperative foreign environments. That looks at advanced technologies for detecting proliferant activities, such as nuclear material production, related facilities, equipment processes, and that is about $80 million that is in this budget for that.    And then we have another area called Ground-Based Nuclear Event Monitoring, and that is the detection of low yield and evasive tests, seismic and radionuclide detection, and exploitation of what we call our dynamic sensor network data, so how do we better interpret the data that we are collecting through all of the systems that we have deployed.    So the goal of these is to meet emerging requirements, to detect and significantly lower the thresholds at which we can detect evasive testing.</t>
   </si>
   <si>
@@ -187,9 +169,6 @@
     <t>412395</t>
   </si>
   <si>
-    <t>Mo Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brooks. I will defer, Mr. Chairman.</t>
   </si>
   <si>
@@ -199,9 +178,6 @@
     <t>412567</t>
   </si>
   <si>
-    <t>Jim Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bridenstine. I am not going to comment. I love Nebraska too. All right.    General, the Secretary of Energy wrote to the Director of OMB [Office of Management and Budget] that because of a recent Committee on Foreign Investment in the United States, CFIUS, decision to not block a foreign company from buying a microchip foundry here in the U.S., NNSA will need a quarter of a billion dollars between fiscal year 2018 and fiscal year 2021 to mitigate the loss of this secure, trusted manufacturing capability.    I understand these capabilities are needed both for NNSA's nuclear weapons work as well as for its satellite programs. Since I am assuming this was the Mubadala Development Company out of the UAE [United Arab Emirates], can you explain why CFIUS didn't block this transaction?    General Klotz. Thank you for the question. Sorry, I am glad we clarified it was from Oklahoma since my mom is from there.</t>
   </si>
   <si>
@@ -232,9 +208,6 @@
     <t xml:space="preserve">    Mr. Rogers. I thank the gentleman.    The Chair now recognizes the gentleman from South Carolina, Mr. Wilson, for 5 minutes.</t>
   </si>
   <si>
-    <t>Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman. And thank you for allowing me to participate.    I understand the service of each of the witnesses today, and I look forward to continue working with you. I especially recognize your dedication, as an alumnus of DOE headquarters, and as being the only Member of Congress who has worked at Savannah River Site, which I am very grateful that I represent, along with Congressman Jim Clyburn of South Carolina.    I ask, first, the unanimous consent to distribute a memo dated November 20, 2015, from Secretary Ernest Moniz to the President, along with section 3119 of fiscal year 2016 NDAA.</t>
   </si>
   <si>
@@ -259,9 +232,6 @@
     <t>400029</t>
   </si>
   <si>
-    <t>Rob Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you. I appreciate that.    And, General, I would like to follow up on the line that Mr. Wilson was giving. I have the same concern about MOX, I am just not as civil as he is. But in both versions of the NDAA that was passed last year, including the one that was signed by your boss, it does clearly say that you shall carry out construction and project-support activities relating to the MOX Facility. And the 3119 section to which Representative Wilson referred does clearly say that you have to include those budget justification materials submitted to Congress in support of the DOE budget for fiscal year 2017 and that updated performance line. It is not an option.    So I do have questions. I haven't seen that baseline either. You admit that it is not there. But how are you now disregarding the direction that was given you in the bill, in the law, and terminating this project? How can you respond to that?    General Klotz. Well, first of all, on the construction, we understand in the 2016 Authorization, Appropriations Acts, we are to continue construction. We will continue construction through the end of 2016. And our proposal, of course, in the fiscal year 2017 budget is to terminate the program. And the reason that we make that argument is because the several studies that we have done over the past 2 years indicate that there is a much faster, much cheaper way to dispose of this. The costs of----</t>
   </si>
   <si>
@@ -289,9 +259,6 @@
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman.    General Klotz, I am going to ask you a single question, also following up on MOX, and then give the rest of my time to Representative Wilson. Regarding the termination, the possible termination of the MOX project, how would that be received by the Russians?    General Klotz. That is a very good question, Congressman, and one of the issues which we have to work through. The Plutonium Management Disposition Agreement says that this plutonium will be disposed of by irradiation or by other means agreed to by the parties. So we can engage in a discussion with the Russians about this particular issue.    In fact, we have already--the Russians came to us earlier in the life of this agreement and asked to change the approach that they were taking, and we agreed to that. In fact, then Secretary of State Clinton and Foreign Minister Lavrov signed an agreement in 2010 which memorialized that.    Now, I think the Secretary of Energy has said this clearly. If not, I will say it. We have been engaged at our level in discussions with our counterparts in Russia about the possibility of this particular approach. They have listened to us very respectfully. Quite frankly, their view is, when you are ready to go forward with this, we will sit down and we will discuss it in more detail. And I suspect, just like it will be on this side of the Atlantic, it will be a whole-of-government approach in Russia to what their final position will be.    But from the technical point of view, the people that we deal with, they fully understand what we are doing, they understand the economics of it, they understand the physics and the chemistry of it, and agree that we have a topic that we can sit down and discuss.</t>
   </si>
   <si>
@@ -382,9 +349,6 @@
     <t xml:space="preserve">    Mr. Rogers. Admiral Caldwell, you're putting together a report to Congress on the potential of using low-enriched uranium fuel in navy reactors. Your predecessor (who is now your boss) told us last year that there are no military benefits provided by switching to low-enriched fuel in Navy reactors. Do you agree?</t>
   </si>
   <si>
-    <t>Caldwell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Caldwell. US Navy warship requirements determine naval fuel system design features including use of highly enriched uranium (HEU) fuel. Substituting low-enriched uranium (LEU) fuel for the HEU in current naval fuel systems would decrease reactor energy and lead to more frequent reactor refueling. LEU fuel would fundamentally decrease the available energy in a naval reactor, thereby reducing a naval warship's availability and longevity. The impact of LEU may be mitigated in aircraft carriers by developing an advanced naval fuel that could increase uranium loading beyond what is practical today and meet the rigorous performance requirements for naval reactors. An advanced fuel system might enable either higher performance with HEU fuel or use of LEU fuel in aircraft carriers. Advanced fuel development is estimated to take about $1 billion, 10-15 years to develop, and would have to begin well in advance of any ship application. Successful development of an advanced fuel system is not assured.    Switching to LEU fuel in naval reactors would be beneficial in allowing the U.S. to take a leadership role in non-proliferation by reducing the need to produce new HEU. Although an LEU development program would likely not produce a more militarily desirable reactor design, the knowledge gained during the research and development work would be beneficial to advance the state-of-the-art in U.S. naval reactor design and manufacturing. Fuel development work would also help sustain and build the cadre of highly specialized naval fuel experts and unique fuel irradiation and post irradiation examination infrastructure.</t>
   </si>
   <si>
@@ -424,9 +388,6 @@
     <t>400232</t>
   </si>
   <si>
-    <t>Rick Larsen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Larsen. Do you expect a bow-wave in terms of costs for funding the life extension programs? How is NNSA preparing to handle 4-5 concurrent life-extension programs?    General Klotz. FY 2017 Future Years Nuclear Security Program (FYNSP) funding for life extension programs (LEPs) increases from $1.340 billion in FY 2017 to $1.919 billion in FY 2021, with significant increases occurring in FY 2018 (+$266 million) and FY 2021 (+$281 million). Beyond the FYNSP, the nominal cost of the LEPs, as reflected in Figure 4-33 of the FY 2017 Stockpile Stewardship and Management Plan (SSMP), plateaus, varying between $1.8 billion and $2 billion per year. Effectively, we will have climbed the ``bow wave'' during the FY 2017 FYNSP. However, it is important to note that only the W76-1 and B61-12 LEPs currently are baselined, and the W88 Alt 370, while baselined for its original scope, is being re-baselined to reflect the addition of the conventional high explosive refresh. The estimates for all other LEPs being performed over the next 25 years (W80-4, IW-1, IW-2, IW-3, and B61-13) are based on planning estimates as described in the FY 2017 SSMP, and their cost should be viewed as a cost range. These estimates are done in advance of the Phase 6.2/2A studies that will establish the specific scope for each LEP, so they are subject to change once those studies are completed. For the period FY 2022-2041 this cost range varies by about +/-$300 million per year around the nominal values described above. Regarding how NNSA is preparing to handle four to five concurrent life extension programs, the best preparation is advance planning for their execution. That's one of the reasons the SSMP is a 25-year plan that lays out our entire scope of activities and current plans for the LEPs. It should also be noted that while multiple LEPs may be ongoing at any particular point in time, some will be in Engineering Development where the preponderance of activities fall on the labs, while others will be in production which falls more heavily on the plants. We are already successfully executing three LEPs simultaneously.</t>
   </si>
   <si>
@@ -452,9 +413,6 @@
   </si>
   <si>
     <t>412382</t>
-  </si>
-  <si>
-    <t>John Garamendi</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Garamendi. Does the dilute and dispose option entail any concern over criticality as the MOX contractor is arguing? And now that the Department of Energy has terminated the program, is it still worth doing a new funding baseline for MOX?    General Klotz. Sandia National Laboratory has reviewed the recent assertions of the risk of criticality issues at WIPP and concluded they are unfounded. According to Sandia, while burial at WIPP would increase the amount of weapon-grade plutonium several fold, criticality of down-blended and packaged Pu-239 cannot result. The assertion that Criticality Control Overpacks (CCO) would become crushed resulting in criticality is simplistic and not credible. The salt formation would squeeze the disposal rooms and waste, but this process cannot separate the Pu from the diluting materials to form an undiluted critical mass.    The FY 2016 NDAA requires the Department to submit a revised Performance Baseline. Therefore, the Department is in the process of updating the performance baseline.</t>
@@ -889,11 +847,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -915,11 +871,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -939,13 +893,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -967,11 +919,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -993,11 +943,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1019,11 +967,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1043,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1071,11 +1015,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1095,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1123,11 +1063,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1149,11 +1087,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1175,11 +1111,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1201,11 +1135,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1227,11 +1159,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1251,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1277,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1303,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1329,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1355,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1381,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1407,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1435,11 +1351,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1459,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1485,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1511,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1537,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1563,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
         <v>41</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1589,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1615,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>48</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1641,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1667,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1693,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1719,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>48</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1745,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1773,11 +1663,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1797,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1825,11 +1711,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1849,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" t="s">
-        <v>61</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1875,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40" t="s">
-        <v>61</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1901,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" t="s">
-        <v>61</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1927,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" t="s">
-        <v>61</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1953,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" t="s">
-        <v>61</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1979,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
-      </c>
-      <c r="G44" t="s">
-        <v>61</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2005,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
         <v>60</v>
-      </c>
-      <c r="G45" t="s">
-        <v>61</v>
-      </c>
-      <c r="H45" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2031,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
         <v>61</v>
-      </c>
-      <c r="H46" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2057,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47" t="s">
-        <v>61</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2085,11 +1951,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2109,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>72</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2137,11 +1999,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2161,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>72</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2187,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>72</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2213,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>72</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2239,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>72</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2267,11 +2119,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2291,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>80</v>
-      </c>
-      <c r="G56" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2317,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2343,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G58" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2369,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
-      </c>
-      <c r="G59" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2395,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2421,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2447,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2475,11 +2311,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2499,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>90</v>
-      </c>
-      <c r="G64" t="s">
-        <v>91</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2525,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>90</v>
-      </c>
-      <c r="G65" t="s">
-        <v>91</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2551,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>72</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2577,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2603,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>72</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2629,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2655,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>72</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2681,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2709,11 +2527,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2735,11 +2551,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2761,11 +2575,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2787,11 +2599,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2813,11 +2623,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2839,11 +2647,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2865,11 +2671,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2891,11 +2695,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2917,11 +2719,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2943,11 +2743,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2969,11 +2767,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2995,11 +2791,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3021,11 +2815,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3047,11 +2839,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3071,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3099,11 +2887,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3123,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3151,11 +2935,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3175,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3203,11 +2983,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3227,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3255,11 +3031,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3279,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>122</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3307,11 +3079,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3331,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>122</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3357,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3383,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3409,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3435,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3461,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3487,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3513,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3539,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3565,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3591,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>135</v>
-      </c>
-      <c r="G106" t="s">
-        <v>136</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3617,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>135</v>
-      </c>
-      <c r="G107" t="s">
-        <v>136</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3643,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>135</v>
-      </c>
-      <c r="G108" t="s">
-        <v>136</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3669,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3695,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>135</v>
-      </c>
-      <c r="G110" t="s">
-        <v>136</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3721,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3747,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>135</v>
-      </c>
-      <c r="G112" t="s">
-        <v>136</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3773,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>122</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3799,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>145</v>
-      </c>
-      <c r="G114" t="s">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3825,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>145</v>
-      </c>
-      <c r="G115" t="s">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3851,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>145</v>
-      </c>
-      <c r="G116" t="s">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3877,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>145</v>
-      </c>
-      <c r="G117" t="s">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3903,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>80</v>
-      </c>
-      <c r="G118" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3929,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>80</v>
-      </c>
-      <c r="G119" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3955,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>72</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3981,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>72</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4007,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>72</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4033,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>72</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4059,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4085,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>72</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98957.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98957.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rogers. Good afternoon. This subcommittee will come to order. We want to welcome to our hearing the President's fiscal year 2017 budget request for the defense-related activities carried out by the Department of Energy [DOE].    I want to thank our witnesses for being here today. I know it takes a lot of time and energy to prepare for these hearings, and I really appreciate your commitment in doing that.    Our witnesses today are Lieutenant General Frank Klotz, retired, Administrator, NNSA [National Nuclear Security Administration]; Ms. Monica Regalbuto, Assistant Secretary for Environmental Management, U.S. Department of Energy; and Ms. Joyce Connery, Chairwoman, Defense Nuclear Facilities Safety Board.    General Klotz, you have some very able folks here today in support of you. I would like to recognize them. Admiral Frank Caldwell. Brigadier General S.L. Davis. And Anne Harrington. Glad to have you all here.    If any of our members have questions directly for these folks later in the hearing, we will ensure that they can step forward to the table where the microphones are and respond. And I know Admiral Caldwell has a supplemental written statement that will be introduced and accepted for the record.    [The prepared statement of Admiral Caldwell can be found in the Appendix on page 65.]</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400081</t>
   </si>
   <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cooper. Thank you, Mr. Chairman. And I would like to also welcome the witnesses.    It is rare in the modern Congress to have essentially a good news hearing, but I think this one of those hearings. I am thankful for that, because at least at the authorizing level, it looks like these programs are going to be fully funded. In some cases, there are increases. In a few cases, there are decreases. The leading one is the Nuclear Nonproliferation account, which goes down some 6 or 7 percent. But we all have to acknowledge that Russia is not exactly a willing partner these days to help us contain that massive hoard of fissile material.    But the key bit of good news for folks back home is here you have a highly contentious Congress that is agreeing on what is our number one defense priority, and we are agreeing on a bipartisan basis, and we are putting our money where our mouths are. So, that is good news for the American people, that is good news for America, that is even good news for this Congress.    So essentially we have a lot to celebrate here. We will have not only questions today, but also questions in the closed session to follow this. But we should not overlook the central fact that the administration and the Republican majority in Congress are keeping the nuclear deterrent safe, secure, and reliable.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -76,12 +91,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Regalbuto</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Secretary Regalbuto. Good afternoon, Chairman Rogers, Ranking Member Cooper, and members of the subcommittee. I am pleased to be here today to represent the Department of Energy's Office of Environmental Management and to discuss the work that we have already successfully accomplished and what we plan to accomplish under the Presidential fiscal 2017 budget request.    The total budget request for the EM [Environmental Management] program is $6.1 billion, which includes $673 million of proposed mandatory funding and $5.3 billion for defense environmental cleanup activities. The request would allow EM to maintain a safe and secure posture across the complex, while maximizing our work on compliance activities.    I would like to take this opportunity to highlight a number of EM's recent accomplishments. At the Savannah River Site, the 4,000th canister of radioactive glass was recently poured. Achieving the milestone enabled us to close the seven high-level waste tanks. At the Moab Site, half of the estimated 60 million tons of uranium mill tailings have been removed and shipped to an engineering disposal cell. At Hanford, we have completed cleanup of the bulk of River Corridor, including more than 500 facilities and 1,000 remediation sites.    The fiscal 2017 budget request will allow us to continue to make progress in ongoing cleanup priorities. Among EM's top priorities is the safe reopening of WIPP [Waste Isolation Pilot Program]. EM continues to support the recovery from two incidents at the facility that interrupted the nationwide program for the disposition of transuranic waste. The request will support initiating waste emplacement operations by December of 2016.    At Idaho, the request will support the Integrated Waste Treatment Unit. This facility is planned to treat approximately 900,000 gallons of sodium-bearing waste. At the Savannah River Site, we will complete construction and ramp up commissioning activities at the Salt Waste Processing Facility, which will significantly increase our ability to treat tank waste. In addition, we will continue to receive, store, and process spent nuclear reactor fuel.    At the Hanford Office of River Protection, the request supports continued construction of the Low-Activity Waste Facility, Balance of Plants, and outfitting the Analytical Laboratory, which are the centerpiece of the Department's plan to begin the direct feed of low-activity waste as soon as 2022.    The request for Richland allows us to continue important work on the Central Plateau and to complete the demolition of the Hanford Plutonium Finishing Plant, once one of the most dangerous buildings in the complex.    At Oak Ridge, the request supports continuing design for the Outfall 200 Mercury Training Facility at the Y-12 National Security Complex and complete the demolition of Building K-27, the last gaseous diffusion enrichment process building. It will mark the first time that a gaseous diffusion enrichment site has been completely decommissioned.    With the most challenging cleanup remaining, we understand the importance of technology development in reducing the lifecycle costs and enhancing our effectiveness. To help address many of the technical challenges involved, the request reflects a total investment in technology development of $33 million. The funding will allow us to continue to integrate robotics technologies into our efforts to help improve overall work and quality of life by easing the performance of physically demanding tasks.    In closing, I am honored to be here today representing the Office of Environmental Management. We are committed to achieving our mission, and we will continue to apply innovative strategies to complete our mission safely. Thank you, and I will be very pleased to take your questions.    [The prepared statement of Secretary Regalbuto can be found in the Appendix on page 44.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. I thank you.    Ms. Connery, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Connery</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Connery. Thank you. Thank you, Chairman Rogers, Ranking Member Cooper, and distinguished members of the subcommittee. Thank you for this opportunity to testify on behalf of the Defense Nuclear Facilities Safety Board on the fiscal 2017 budget request.    My name is Joyce Connery, and I have been with the Board for 6 months. I am joined today by two of my fellow Board members, Bruce Hamilton and Sean Sullivan. Bruce and I are both new to the Board this year.    As you may know, the Board is the only agency that provides independent safety oversight to DOE's defense nuclear facilities. These facilities and their operations are essential to our Nation's defense, as noted by the chairman. They perform work that includes the assembly and disassembly of nuclear weapons, surveillance of the stockpile, fabrication of plutonium pits and weapons components, production and recycling of tritium, nuclear criticality experiments, subcritical experiments, and a host of activities to address radioactive legacy waste resulting from 70 years of nuclear weapons operations.    The Board's vitally important oversight mission is achieved with a relatively small budget and a cadre of technical experts. In fiscal year 2017, the Board's budget request is $31 million and supports 120 FTEs [full-time equivalents]. With these resources--and our staff, our people are truly the Board's greatest resource--we will continue to perform independent safety oversight throughout the complex.    Within our oversight responsibilities, we strive to proactively address safety issues at DOE defense nuclear facilities to eliminate threats to public health and safety.    Specifically, we advise DOE and NNSA on the need to effectively integrate safety into the design of new facilities, strengthen the protection of workers through improvements in work planning and conduct of operations, and to improve emergency preparedness and safety culture at sites with defense nuclear facilities.    In recent years, the Board has increased its emphasis on emergency preparedness and response capabilities, making recommendations both complex-wide and site-specific. The complex's aging facilities and resultant backlog of maintenance have created additional concerns. Delays to NNSA's efforts to modernize its infrastructure can exacerbate safety-related issues and require that ongoing work be performed in degrading nuclear facilities that do not meet modern safety standards.    The Board supports DOE and NNSA's efforts to develop new defense facilities, and we will continue to work closely with them to integrate safety into their designs at the earliest possible stages.    While increasing emphasis has been placed on emergency management preparedness and response, I personally have also been concerned with the state of the oversight throughout the defense nuclear complex and staffing challenges at both the Federal and contractor level.    Difficulties retaining proper technical competencies have led to concerns of insufficient Federal safety oversight, and similar concerns on the contractor side impact conduct of operations.    Staffing shortages may be the result of an aging and retiring workforce, competition for highly skilled workers, and compounded by the slow pace of the clearance adjudication process.    Chairman Rogers, Ranking Member Cooper, this concludes my opening statement. Thank you again for the opportunity to be here today. We at the Board look forward to our continued work with this subcommittee, and I stand ready to respond to any questions you may have.    Thank you.    [The prepared statement of Ms. Connery can be found in the Appendix on page 53.]</t>
   </si>
   <si>
@@ -127,6 +148,12 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Franks</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Franks. Well, thank you, Mr. Chairman.    Thank all of you for being here.    General, I always especially appreciate men like yourself who have given their entire life to the cause of freedom.    General, do you believe that the need for our capability to detect, identify, and characterize nuclear weapons programs, illicit diversion of special nuclear materials, and nuclear detonations is something that is increasing in this environment or decreasing, that need to be able to do that?    General Klotz. The need is always there to be able to detect, and particularly as more and more countries look to civil nuclear power as a way to solve their energy demands and needs in the future, the ability to detect whether or not the materials that are associated with civil nuclear power are being diverted for military uses will continue to be a challenge and a greater challenge. It is something that we spend a lot of time thinking about. Our laboratories and our production facilities are engaged in significant research and development to ensure that we are staying ahead of the power curve on this.</t>
   </si>
   <si>
@@ -145,6 +172,9 @@
     <t xml:space="preserve">    Mr. Franks. Absolutely.</t>
   </si>
   <si>
+    <t>Harrington</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Harrington. First, thank you very much for the question and particularly for recognizing what is very important in my line of business, which is the evolving and emerging threats.    To go back to your initial question very quickly on the R&amp;D side, we have two programs specifically in the R&amp;D area that address those issues. We have what we call our Material and Weapons Development Program that looks at nuclear fuel cycle, especially challenges from noncooperative foreign environments. That looks at advanced technologies for detecting proliferant activities, such as nuclear material production, related facilities, equipment processes, and that is about $80 million that is in this budget for that.    And then we have another area called Ground-Based Nuclear Event Monitoring, and that is the detection of low yield and evasive tests, seismic and radionuclide detection, and exploitation of what we call our dynamic sensor network data, so how do we better interpret the data that we are collecting through all of the systems that we have deployed.    So the goal of these is to meet emerging requirements, to detect and significantly lower the thresholds at which we can detect evasive testing.</t>
   </si>
   <si>
@@ -169,6 +199,12 @@
     <t>412395</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brooks. I will defer, Mr. Chairman.</t>
   </si>
   <si>
@@ -178,6 +214,9 @@
     <t>412567</t>
   </si>
   <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bridenstine. I am not going to comment. I love Nebraska too. All right.    General, the Secretary of Energy wrote to the Director of OMB [Office of Management and Budget] that because of a recent Committee on Foreign Investment in the United States, CFIUS, decision to not block a foreign company from buying a microchip foundry here in the U.S., NNSA will need a quarter of a billion dollars between fiscal year 2018 and fiscal year 2021 to mitigate the loss of this secure, trusted manufacturing capability.    I understand these capabilities are needed both for NNSA's nuclear weapons work as well as for its satellite programs. Since I am assuming this was the Mubadala Development Company out of the UAE [United Arab Emirates], can you explain why CFIUS didn't block this transaction?    General Klotz. Thank you for the question. Sorry, I am glad we clarified it was from Oklahoma since my mom is from there.</t>
   </si>
   <si>
@@ -208,6 +247,9 @@
     <t xml:space="preserve">    Mr. Rogers. I thank the gentleman.    The Chair now recognizes the gentleman from South Carolina, Mr. Wilson, for 5 minutes.</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman. And thank you for allowing me to participate.    I understand the service of each of the witnesses today, and I look forward to continue working with you. I especially recognize your dedication, as an alumnus of DOE headquarters, and as being the only Member of Congress who has worked at Savannah River Site, which I am very grateful that I represent, along with Congressman Jim Clyburn of South Carolina.    I ask, first, the unanimous consent to distribute a memo dated November 20, 2015, from Secretary Ernest Moniz to the President, along with section 3119 of fiscal year 2016 NDAA.</t>
   </si>
   <si>
@@ -232,6 +274,12 @@
     <t>400029</t>
   </si>
   <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Rob</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you. I appreciate that.    And, General, I would like to follow up on the line that Mr. Wilson was giving. I have the same concern about MOX, I am just not as civil as he is. But in both versions of the NDAA that was passed last year, including the one that was signed by your boss, it does clearly say that you shall carry out construction and project-support activities relating to the MOX Facility. And the 3119 section to which Representative Wilson referred does clearly say that you have to include those budget justification materials submitted to Congress in support of the DOE budget for fiscal year 2017 and that updated performance line. It is not an option.    So I do have questions. I haven't seen that baseline either. You admit that it is not there. But how are you now disregarding the direction that was given you in the bill, in the law, and terminating this project? How can you respond to that?    General Klotz. Well, first of all, on the construction, we understand in the 2016 Authorization, Appropriations Acts, we are to continue construction. We will continue construction through the end of 2016. And our proposal, of course, in the fiscal year 2017 budget is to terminate the program. And the reason that we make that argument is because the several studies that we have done over the past 2 years indicate that there is a much faster, much cheaper way to dispose of this. The costs of----</t>
   </si>
   <si>
@@ -259,6 +307,12 @@
     <t>412191</t>
   </si>
   <si>
+    <t>Lamborn</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman.    General Klotz, I am going to ask you a single question, also following up on MOX, and then give the rest of my time to Representative Wilson. Regarding the termination, the possible termination of the MOX project, how would that be received by the Russians?    General Klotz. That is a very good question, Congressman, and one of the issues which we have to work through. The Plutonium Management Disposition Agreement says that this plutonium will be disposed of by irradiation or by other means agreed to by the parties. So we can engage in a discussion with the Russians about this particular issue.    In fact, we have already--the Russians came to us earlier in the life of this agreement and asked to change the approach that they were taking, and we agreed to that. In fact, then Secretary of State Clinton and Foreign Minister Lavrov signed an agreement in 2010 which memorialized that.    Now, I think the Secretary of Energy has said this clearly. If not, I will say it. We have been engaged at our level in discussions with our counterparts in Russia about the possibility of this particular approach. They have listened to us very respectfully. Quite frankly, their view is, when you are ready to go forward with this, we will sit down and we will discuss it in more detail. And I suspect, just like it will be on this side of the Atlantic, it will be a whole-of-government approach in Russia to what their final position will be.    But from the technical point of view, the people that we deal with, they fully understand what we are doing, they understand the economics of it, they understand the physics and the chemistry of it, and agree that we have a topic that we can sit down and discuss.</t>
   </si>
   <si>
@@ -349,6 +403,9 @@
     <t xml:space="preserve">    Mr. Rogers. Admiral Caldwell, you're putting together a report to Congress on the potential of using low-enriched uranium fuel in navy reactors. Your predecessor (who is now your boss) told us last year that there are no military benefits provided by switching to low-enriched fuel in Navy reactors. Do you agree?</t>
   </si>
   <si>
+    <t>Caldwell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Admiral Caldwell. US Navy warship requirements determine naval fuel system design features including use of highly enriched uranium (HEU) fuel. Substituting low-enriched uranium (LEU) fuel for the HEU in current naval fuel systems would decrease reactor energy and lead to more frequent reactor refueling. LEU fuel would fundamentally decrease the available energy in a naval reactor, thereby reducing a naval warship's availability and longevity. The impact of LEU may be mitigated in aircraft carriers by developing an advanced naval fuel that could increase uranium loading beyond what is practical today and meet the rigorous performance requirements for naval reactors. An advanced fuel system might enable either higher performance with HEU fuel or use of LEU fuel in aircraft carriers. Advanced fuel development is estimated to take about $1 billion, 10-15 years to develop, and would have to begin well in advance of any ship application. Successful development of an advanced fuel system is not assured.    Switching to LEU fuel in naval reactors would be beneficial in allowing the U.S. to take a leadership role in non-proliferation by reducing the need to produce new HEU. Although an LEU development program would likely not produce a more militarily desirable reactor design, the knowledge gained during the research and development work would be beneficial to advance the state-of-the-art in U.S. naval reactor design and manufacturing. Fuel development work would also help sustain and build the cadre of highly specialized naval fuel experts and unique fuel irradiation and post irradiation examination infrastructure.</t>
   </si>
   <si>
@@ -388,6 +445,12 @@
     <t>400232</t>
   </si>
   <si>
+    <t>Larsen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Larsen. Do you expect a bow-wave in terms of costs for funding the life extension programs? How is NNSA preparing to handle 4-5 concurrent life-extension programs?    General Klotz. FY 2017 Future Years Nuclear Security Program (FYNSP) funding for life extension programs (LEPs) increases from $1.340 billion in FY 2017 to $1.919 billion in FY 2021, with significant increases occurring in FY 2018 (+$266 million) and FY 2021 (+$281 million). Beyond the FYNSP, the nominal cost of the LEPs, as reflected in Figure 4-33 of the FY 2017 Stockpile Stewardship and Management Plan (SSMP), plateaus, varying between $1.8 billion and $2 billion per year. Effectively, we will have climbed the ``bow wave'' during the FY 2017 FYNSP. However, it is important to note that only the W76-1 and B61-12 LEPs currently are baselined, and the W88 Alt 370, while baselined for its original scope, is being re-baselined to reflect the addition of the conventional high explosive refresh. The estimates for all other LEPs being performed over the next 25 years (W80-4, IW-1, IW-2, IW-3, and B61-13) are based on planning estimates as described in the FY 2017 SSMP, and their cost should be viewed as a cost range. These estimates are done in advance of the Phase 6.2/2A studies that will establish the specific scope for each LEP, so they are subject to change once those studies are completed. For the period FY 2022-2041 this cost range varies by about +/-$300 million per year around the nominal values described above. Regarding how NNSA is preparing to handle four to five concurrent life extension programs, the best preparation is advance planning for their execution. That's one of the reasons the SSMP is a 25-year plan that lays out our entire scope of activities and current plans for the LEPs. It should also be noted that while multiple LEPs may be ongoing at any particular point in time, some will be in Engineering Development where the preponderance of activities fall on the labs, while others will be in production which falls more heavily on the plants. We are already successfully executing three LEPs simultaneously.</t>
   </si>
   <si>
@@ -413,6 +476,12 @@
   </si>
   <si>
     <t>412382</t>
+  </si>
+  <si>
+    <t>Garamendi</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Garamendi. Does the dilute and dispose option entail any concern over criticality as the MOX contractor is arguing? And now that the Department of Energy has terminated the program, is it still worth doing a new funding baseline for MOX?    General Klotz. Sandia National Laboratory has reviewed the recent assertions of the risk of criticality issues at WIPP and concluded they are unfounded. According to Sandia, while burial at WIPP would increase the amount of weapon-grade plutonium several fold, criticality of down-blended and packaged Pu-239 cannot result. The assertion that Criticality Control Overpacks (CCO) would become crushed resulting in criticality is simplistic and not credible. The salt formation would squeeze the disposal rooms and waste, but this process cannot separate the Pu from the diluting materials to form an undiluted critical mass.    The FY 2016 NDAA requires the Department to submit a revised Performance Baseline. Therefore, the Department is in the process of updating the performance baseline.</t>
@@ -797,7 +866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,7 +874,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,2981 +896,3538 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G29" t="s">
+        <v>44</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G31" t="s">
+        <v>44</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G33" t="s">
+        <v>44</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G37" t="s">
+        <v>61</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G39" t="s">
+        <v>66</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G40" t="s">
+        <v>66</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G41" t="s">
+        <v>66</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G42" t="s">
+        <v>66</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G43" t="s">
+        <v>66</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G44" t="s">
+        <v>66</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G45" t="s">
+        <v>66</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G46" t="s">
+        <v>66</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G47" t="s">
+        <v>66</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>71</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G56" t="s">
+        <v>86</v>
+      </c>
       <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G57" t="s">
+        <v>86</v>
+      </c>
       <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>71</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G58" t="s">
+        <v>86</v>
+      </c>
       <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G59" t="s">
+        <v>86</v>
+      </c>
       <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>71</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G60" t="s">
+        <v>86</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>71</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G61" t="s">
+        <v>86</v>
+      </c>
       <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>71</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G62" t="s">
+        <v>86</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G64" t="s">
+        <v>97</v>
+      </c>
       <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G65" t="s">
+        <v>97</v>
+      </c>
       <c r="H65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s">
+        <v>129</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s">
+        <v>129</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
       <c r="H97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>18</v>
+      </c>
       <c r="H98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>18</v>
+      </c>
       <c r="H99" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>18</v>
+      </c>
       <c r="H100" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>18</v>
+      </c>
       <c r="H101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>18</v>
+      </c>
       <c r="H102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s">
+        <v>25</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G104" t="s">
+        <v>18</v>
+      </c>
       <c r="H104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>123</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G106" t="s">
+        <v>143</v>
+      </c>
       <c r="H106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I106" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>123</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G107" t="s">
+        <v>143</v>
+      </c>
       <c r="H107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>123</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G108" t="s">
+        <v>143</v>
+      </c>
       <c r="H108" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s">
+        <v>25</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>123</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G110" t="s">
+        <v>143</v>
+      </c>
       <c r="H110" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I110" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s">
+        <v>25</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>123</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G112" t="s">
+        <v>143</v>
+      </c>
       <c r="H112" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s">
+        <v>129</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>132</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G114" t="s">
+        <v>154</v>
+      </c>
       <c r="H114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>132</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G115" t="s">
+        <v>154</v>
+      </c>
       <c r="H115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>132</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G116" t="s">
+        <v>154</v>
+      </c>
       <c r="H116" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>132</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G117" t="s">
+        <v>154</v>
+      </c>
       <c r="H117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I117" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>71</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G118" t="s">
+        <v>86</v>
+      </c>
       <c r="H118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I118" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>71</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G119" t="s">
+        <v>86</v>
+      </c>
       <c r="H119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s">
+        <v>77</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s">
+        <v>77</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s">
+        <v>77</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G123" t="s">
+        <v>77</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s">
+        <v>25</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>144</v>
+        <v>24</v>
+      </c>
+      <c r="G125" t="s">
+        <v>77</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98957.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98957.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Rogers</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400081</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Cooper</t>
   </si>
   <si>
@@ -148,6 +157,9 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Franks</t>
   </si>
   <si>
@@ -305,6 +317,9 @@
   </si>
   <si>
     <t>412191</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>Lamborn</t>
@@ -866,7 +881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -874,7 +889,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,3535 +914,3844 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G37" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G41" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G43" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G44" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G45" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>77</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" t="s">
-        <v>77</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>81</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>77</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>77</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>77</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I59" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G64" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H64" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I64" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G65" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H65" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s">
-        <v>77</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>81</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s">
-        <v>25</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>77</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>81</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" t="s">
-        <v>77</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>81</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>25</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>28</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>28</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>31</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>31</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>129</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>134</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>129</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>134</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I97" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H98" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I98" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G99" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H99" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I99" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I100" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G101" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H101" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H102" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I102" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" t="s">
-        <v>25</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>28</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H104" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I104" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" t="s">
-        <v>28</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>31</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G106" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I106" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G107" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I107" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G108" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I108" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G110" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I110" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>28</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G112" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I112" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" t="s">
-        <v>129</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>134</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G114" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I114" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G115" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I115" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G116" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I116" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J116" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G117" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I117" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G118" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I118" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J118" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G119" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I119" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" t="s">
-        <v>77</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>81</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>24</v>
-      </c>
-      <c r="G121" t="s">
-        <v>77</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>81</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s">
-        <v>77</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>81</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>24</v>
-      </c>
-      <c r="G123" t="s">
-        <v>77</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>81</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s">
-        <v>25</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>28</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" t="s">
-        <v>77</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>167</v>
+        <v>27</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>81</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
